--- a/file/TGE-521-YilanRestaurant.xlsx
+++ b/file/TGE-521-YilanRestaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2CDDAA-7117-4645-B29E-E31A31B8A190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B93066-0E12-DE4B-9244-C4C2FC62C969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="4820" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="16560" yWindow="4640" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,13 +102,254 @@
     <t>008</t>
   </si>
   <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
     <t>宜蘭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里海咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礁溪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位於礁溪的「里海咖啡」，以木頭與綠色植栽妝點外觀，低調樸實、質感獨具，店門口呈現出質感中帶點小清新的風格。「里海café」是宜蘭超人氣好評餐廳(Google 4.0/1089則評論)，主要供應新鮮魚貨的定食與特色飲料、咖啡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/satomi.yilan/</t>
+  </si>
+  <si>
+    <t>03 987 1213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣礁溪鄉和平路112-120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30 - 15:00 、 17:30 - 19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5201-YilanRestaurant-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5201-YilanRestaurant-02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5201-YilanRestaurant-03.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5201-YilanRestaurant-04.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5201-YilanRestaurant-05.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5201-YilanRestaurant-06.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5201-YilanRestaurant-07.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5201-YilanRestaurant-08.jpg</t>
+  </si>
+  <si>
+    <t>初物輕懷石料理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「初物輕懷石料理」以征服日本人味蕾的好手藝，加上時令的在地海鮮魚貨及頂級食材，開幕才不久就在宜蘭精緻日式料理界打響名號並獲得好評推薦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/hatumono.taiwan/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+03 925 5860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00 - 14:30 、 17:30 - 21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭市公園路489號 268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭市</t>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海鮮&amp;日本料理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鮮靚海鮮餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/category/Taiwanese-Restaurant/%E9%AE%AE%E9%9D%9A%E6%B5%B7%E9%AE%AE-184263078263724/</t>
+  </si>
+  <si>
+    <t>03 925 1800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣宜蘭市東津路20之56號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭熱門的「鮮靚海鮮餐廳」，以平價的海鮮、快炒聞名，農曆過年期間的桌菜＄6000餘元，多樣豐盛、C/P值高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wusharbour.wixsite.com/seafood/booking</t>
+  </si>
+  <si>
+    <t>伍參港海廚料理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0979-604-467</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣頭城鎮濱海路二段70號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無菜單料理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭城鎮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚴選食材、原味烹調、用心經營的「伍参港海廚料理」，主打健康天然的食材與風味，是宜蘭無菜單料理餐廳中，美味精緻且特色獨具的推薦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大洲魚寮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/dacho.seafood/</t>
+  </si>
+  <si>
+    <t>03 955 9110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣三星鄉上將路二段888號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+11:30 - 14:00 、 17:30 - 21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星鄉</t>
+  </si>
+  <si>
+    <t>想要同時品味宜蘭招牌的無菜單料理、新鮮海產的饕客，可以試試三星知名的「大洲魚寮海鮮‧燒物」。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>農夫的店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">宜蘭熱門的新興無菜單料理餐廳「農夫的店」，是以當天現撈魚貨為主要食材，每人$800起可大啖生魚片、甜蝦、烤黑喉、牛排等新鮮豐富佳餚，是海鮮控不容錯過的選擇。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/category/Theme-Restaurant/%E8%BE%B2%E5%A4%AB%E7%9A%84%E5%BA%97-1624161431207953/</t>
+  </si>
+  <si>
+    <t>0975 230 923</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">羅東鎮公正路515號1樓 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅東鎮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30 - 14:30 、 18:00 - 23:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饗宴互動式鐵板燒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/category/Teppanyaki-Restaurant/%E9%A5%97%E5%AE%B4%E9%90%B5%E6%9D%BF%E7%87%92-292892184092736/</t>
+  </si>
+  <si>
+    <t>結合海鮮、無菜單的「饗宴互動式鐵板燒」是宜蘭知名的高級餐廳，也是網路、報章媒體推薦必吃的豪華料理經典代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣五結鄉溪濱路二段263號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 960 1777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00–21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵板燒&amp;燒烤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五結鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://teppanyaki168.com/</t>
+  </si>
+  <si>
+    <t>晶饌鐵板創料理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「晶饌鐵板創料理」嚴選食材、用心烹調，是一間物美價實的無菜單鐵板燒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-9577339</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉柯林村安農一路96號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AM 11:30～PM 14:00 ‧ PM 17:30～PM 21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬山鄉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,28 +739,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="56.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="2"/>
-    <col min="7" max="7" width="17" style="2" customWidth="1"/>
-    <col min="9" max="9" width="37" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="3"/>
+    <col min="4" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="56.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="37" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16">
+    <row r="1" spans="1:11" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,131 +772,373 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" ht="64">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="48">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="32">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="48">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="48">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="64">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="32">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="48">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="2"/>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="10:10">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="10:10">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="10:10">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="10:10">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="10:10">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="10:10">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="10:10">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="10:10">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="10:10">
+      <c r="J31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/file/TGE-521-YilanRestaurant.xlsx
+++ b/file/TGE-521-YilanRestaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B93066-0E12-DE4B-9244-C4C2FC62C969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507593E5-791B-8E4A-8CBF-52A4CB140E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="4640" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="19740" yWindow="2660" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="128">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,10 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>03-9577339</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宜蘭縣冬山鄉柯林村安農一路96號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,6 +346,172 @@
   </si>
   <si>
     <t>冬山鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>fig/TGE-5201-YilanRestaurant-09.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5201-YilanRestaurant-10.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5201-YilanRestaurant-11.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5201-YilanRestaurant-12.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5201-YilanRestaurant-13.jpg</t>
+  </si>
+  <si>
+    <t>滿山望海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭城最近最最熱門的咖啡廳 就是滿山望海了吧！位於頭城的海邊，望出去就是龜山島。坐在室內吹冷氣, 就有大片落地玻璃窗可以眺望海景。雖然限時2小時，但風景真的好美啊！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣頭城鎮大坑路197巷2號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 977 6788</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 957 7339</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kongpizzacafe/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/mansiontaiwan.toucheng/</t>
+  </si>
+  <si>
+    <t>0912 089 795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00 - 23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空ㄟ農場能欣賞遼闊的蘭陽平原夜景, 園區佔地寬敞，浪漫氣氛圍繞整座咖啡館.夜裡點燈，再搭配一望無際的百萬夜景更夢幻. 館內提供手作窯烤PIZZA、焗烤系列和鬆餅. 來訪能用餐、輕鬆午茶，也能小酌一杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空ㄟ農場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣礁溪鄉白雲村白石腳路157巷31號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礁溪鄉</t>
+  </si>
+  <si>
+    <t>礁溪鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒔花咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/%E8%92%94%E8%8A%B1-DailyBlossom-Cafe-More%E6%9C%AA%E6%8F%90%E4%BE%9B%E9%A0%90%E7%B4%84-108717630739900/</t>
+  </si>
+  <si>
+    <t>03 988 7228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣礁溪鄉十六結路23-17號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00 - 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近在宜蘭礁溪最火紅的咖啡館就是『蒔花 DailyBlossom Cafe &amp; More』，吸引許多網美前往朝聖，這也是由知名咖啡館黑宅團隊全新打造的最新力作，位於田間小路如果沒認真找真的很容易錯過，最令人訝異的應該是營業時間未到就已經有許多人在門口排隊，目前沒有開放訂位，只能現場排隊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑比山丘 Bambi Land，位在宜蘭冬山，距離梅花湖風景區約5分鐘車程，眾所期盼的小鹿奇幻國度，在今年六月初開始試營運，可以近距離接觸與餵食小鹿，小鹿們都相當親人，適合親子或情侶到此遊玩，終於不用特地跑到墾丁鹿境或者日本奈良了，園區內有美美子みみこ咖啡的進駐，和小鹿們玩累了就坐下來喝咖啡吃甜點，而假日人潮眾多，若不想現場排隊，多利用線上預約的方式唷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://booking.menushop.tw/bambiland</t>
+  </si>
+  <si>
+    <t>斑比山丘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣冬山鄉下湖路285號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+10:00 - 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://artemisgarden10103.incdoor.com/</t>
+  </si>
+  <si>
+    <t>香草菲菲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有人說「味道是一種記憶」，許多人小時候都有在媽媽、阿嬤身旁聞到一股淡淡花香味的經驗，你想知道她們藏在衣袋裡自然飄香氣的秘密嗎?這股記憶中的香味，是童年的味道，更是思念的味道…。
+什麼花，讓你想起了誰？什麼味道，憶起了曾經的記憶呢？尋找屬於你的幸福香味，香草菲菲與您一起開啟幸福的窗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 922 9933</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00 - 18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣員山鄉內城路650號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>員山鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0968 266 199</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,6 +585,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -742,10 +907,10 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD43"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1048,7 +1213,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
         <v>75</v>
@@ -1057,13 +1222,13 @@
         <v>79</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>33</v>
@@ -1072,22 +1237,180 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="J14" s="2"/>
+    <row r="10" spans="1:11" ht="48">
+      <c r="A10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="64">
+      <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="80">
+      <c r="A12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="112">
+      <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="96">
+      <c r="A14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="J15" s="2"/>
